--- a/qa-table.xlsx
+++ b/qa-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/porolakka/GitHub/khma-covid19-qa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4379C576-67E3-B447-84B0-045B3C9A3AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504AF6F7-C7EE-CA41-807E-9045A194B834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="215">
   <si>
     <t>テーマ</t>
   </si>
@@ -115,21 +115,12 @@
     <t>QA01-18</t>
   </si>
   <si>
-    <t>地域の実情に即した在宅向けマニュアル</t>
-  </si>
-  <si>
     <t>QA01-19</t>
   </si>
   <si>
-    <t>隔離方法</t>
-  </si>
-  <si>
     <t>QA01-20</t>
   </si>
   <si>
-    <t>新型コロナウィルスの感染を疑う症状等</t>
-  </si>
-  <si>
     <t>QA01-21</t>
   </si>
   <si>
@@ -146,10 +137,6 @@
   </si>
   <si>
     <t>QA01-25</t>
-  </si>
-  <si>
-    <t>​市販の消毒用アルコール（70%前後のエタノール溶液）での消毒が有効です。
-70%前後のエタノール溶液について、市販の手指消毒用アルコールがこれにあたります。</t>
   </si>
   <si>
     <t>マスク（家庭用使い捨てマスク、布マスク含む）を着用することで、ウイルスを含んだ飛沫が周囲に飛散するのを防ぐ効果があります。マスクを着脱する前後に手洗いを行うことをお勧めします。</t>
@@ -219,11 +206,6 @@
 「Guidelines for environmental infection control in health-care facilities」</t>
   </si>
   <si>
-    <t>長期療養型施設におけるCOVID19への対応は、早期発見、隔離、治療とケア、そして感染源の制御（感染者の拡散防止）を基礎とする。そのために、職員の前向きサーベイランスの確立が重要である。
-職員に対し、発熱や呼吸器症状がある場合は報告し、自宅にとどまることを要請する
-施設に入る際にすべての従業員の検温を行う</t>
-  </si>
-  <si>
     <t>QA-02-01</t>
   </si>
   <si>
@@ -252,13 +234,6 @@
   </si>
   <si>
     <t>QA-02-08</t>
-  </si>
-  <si>
-    <t>参考(1)：日本環境感染学会「高齢者介護施設における感染対策 第1版」http://www.kankyokansen.org/uploads/uploads/files/jsipc/koreisyakaigoshisetsu_kansentaisaku.pdf
-参考(2)：厚生労働省「新型コロナウイルスを想定した「新しい生活様式」を公表しました」https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/0000121431_newlifestyle.html参考
-参考(3)：厚生労働省
-「社会福祉施設等における感染拡大防止のための留意点について（その２）」
-https://www.mhlw.go.jp/content/000619845.pdf</t>
   </si>
   <si>
     <t>QA-02-09</t>
@@ -305,9 +280,6 @@
 </t>
   </si>
   <si>
-    <t>アルコール消毒液は、効果がありますか？</t>
-  </si>
-  <si>
     <t>マスクには、どういう予防効果がありますか？</t>
   </si>
   <si>
@@ -384,12 +356,6 @@
   </si>
   <si>
     <t>発症が疑われる人がいる場合に、医療機関にかかるまでどう対策したらよいですか？</t>
-  </si>
-  <si>
-    <t>多床室の施設であり、隔離が難しい場合はどう対処したらよいですか？</t>
-  </si>
-  <si>
-    <t>​一時的な発熱と新型コロナウィルスとの見分け方の基準は何ですか？</t>
   </si>
   <si>
     <t>共用しない方がよい医療機器・介護機器・道具をどう決めたらよいですか？</t>
@@ -1176,69 +1142,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">使い捨てとされているサージカルマスク、長袖ガウン、ゴーグル及びフェイスシールドについては、再利用するなど個人防護具の例外的取扱いにより効率的に使用できます。
-・長袖ガウンは、体を覆うことができ、破棄できるもの（カッパなど）で代替可能です。撥水性があることが望ましいです。
-・ゴーグル及びフェイスシールドは、目を覆うことができるもので代替可能です。（シュノーケリングマスクなど）
-・サージカルマスクは、感染の可能性のある患者との密接な接触が避けられない場合など、使用機会の優先順位を設けてください。複数の患者を診察・検査等する場合においても、同一のサージカルマスクを継続して使用できます。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="HGMaruGothicMPRO"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サージカルマスクの継続して使用する場合、次の点に注意してください。
-・目に見えて汚れた場合や損傷した場合は、廃棄してください。
-・サージカルマスクを外す必要がある場合は、感染者のケアエリアから離れてください。
-・サージカルマスクを外す際は、マスクの外面を内側にして折りたたみ、接触感染を避けてください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="HGMaruGothicMPRO"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>長袖ガウンは、患者の体位交換や車いす移乗や、前腕や上腕が患者に触れるケアを行う時（長袖ガウン不足時は袖のないエプロン可）など、使用機会の優先順位を設けてください。
-ゴーグル及びフェイスシールドは、複数の患者を診察する場合には、同一のゴーグルやフェイスシールドを継続して使用できます。
-ゴーグル及びフェイスシールドの継続して使用する場合、次の点に注意してください。 
-・目に見えて汚れた場合、洗浄及び消毒をしてください。
-・一度外したら、再度装着する前に洗浄及び消毒をしてください。
-・ゴーグルやフェイスシールドが損傷した場合（ゴーグルやフェイスシールドがしっかりと固定できなくなった場合、視界が妨げられ改善できない場合など）は廃棄してください。 
-・ゴーグルやフェイスシールドを外す必要がある場合、感染者のケアエリアから離れてください。
-原則、COVID-19 が疑われるまたは確定した入所者に対して日常的ケアを提供する際には、接触感染と飛沫感染の予防策を実践する必要があります。
-咳・痰などによる、いわゆるエアロゾルは4m飛散するという報告もあります。
-個人防護具については、医療機関と個人でそれぞれ適切な利用例が示されています。高齢者施設や基礎疾患のある方の長期療養施設については、医療機関に準じた形になります。
-医療施設の場合、患者に直接ケアを実施する場合は医療用マスク、ガウン、手袋、目の保護具が必要です。清掃時には、医療用マスク、ガウン、頑丈な手袋、目の保護具、長靴や周囲を覆われた穴の開いていない作業靴が必要です。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">感染者と接触があった利用者・職員等の特定は、保健所等と協力し迅速に行ってください。
  保健所の調査で濃厚接触者（注1）とされた場合は、当該職員も利用者も、感染者との最終接触から14日間（注2）の健康観察を行うこととしますが、詳細については保健所の指示に従ってください。
  原則、当該職員は自宅待機とします。職場復帰時期については、発熱等の症状の有無等も踏まえ、保健所の指示に従ってください。
@@ -4217,12 +4120,196 @@
     <t>新型コロナウイルスの基本的な感染予防</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>アルコール消毒液は、効果がありますか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="HGMaruGothicMPRO"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>市販の消毒用アルコール（70%前後のエタノール溶液）での消毒が有効です。
+70%前後のエタノール溶液について、市販の手指消毒用アルコールがこれにあたります。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参考(1)：日本環境感染学会「高齢者介護施設における感染対策 第1版」http://www.kankyokansen.org/uploads/uploads/files/jsipc/koreisyakaigoshisetsu_kansentaisaku.pdf
+参考(2)：厚生労働省「新型コロナウイルスを想定した「新しい生活様式」を公表しました」https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/0000121431_newlifestyle.html
+参考(3)：厚生労働省
+「社会福祉施設等における感染拡大防止のための留意点について（その２）」
+https://www.mhlw.go.jp/content/000619845.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>多床室の施設であり、隔離が難しい場合はどう対処したらよいですか？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新型コロナウイルスの感染を疑う症状等</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="HGMaruGothicMPRO"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一時的な発熱と新型コロナウイルスとの見分け方の基準は何ですか？</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長期療養型施設におけるCOVID19への対応は、早期発見、隔離、治療とケア、そして感染源の制御（感染者の拡散防止）を基礎とします。そのために、職員の前向きサーベイランスの確立が重要です。  
+職員に対し、発熱や呼吸器症状がある場合は報告し、自宅にとどまることを要請してください。  
+施設に入る際にすべての従業員の検温を行ってください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>防護服・ガウン・ゴーグルの準備ができていない場合の感染者との接触はどうしたらよいですか？
+1.使い捨てとされているサージカルマスク、長袖ガウン、ゴーグル及びフェイスシールドについては、再利用するなど個人防護具の例外的取扱いにより効率的に使用できます。
+■ サージカルマスクについて
+感染の可能性のある患者との密接な接触が避けられない場合など、使用機会の優先順位を設けてください。複数の患者を診察・検査等する場合においても、同一のサージカルマスクを継続して使用できます。
+【注意点】
+(1) 目に見えて汚れた場合や損傷した場合は、廃棄してください。
+(2) サージカルマスクを外す必要がある場合は、感染者のケアエリアから離れてください。
+(3) サージカルマスクを外す際は、マスクの外面を内側にして折りたたみ、接触感染を避けてください。
+■ ゴーグル及びフェイスシールドについて
+複数の患者を診察する場合には、同一のゴーグルやフェイスシールドを継続して使用できます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="HGMaruGothicMPRO"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">　
+【注意点】 
+(1) 目に見えて汚れた場合、洗浄及び消毒をしてください。
+(2) 一度外したら、再度装着する前に洗浄及び消毒をしてください。
+(3) 以下の場合はゴーグルやフェイスシールドを廃棄してください。
+　　・損傷した場合
+　　・しっかりと固定できなくなった場合
+　　・視界が妨げられ改善できない場合　など
+(4) ゴーグルやフェイスシールドを外す必要がある場合、感染者のケアエリアから離れてください。
+■ 長袖ガウンについて
+患者の体位交換や車いす移乗や、前腕や上腕が患者に触れるケアを行う時（長袖ガウン不足時は袖のないエプロン可）など、使用機会の優先順位を設けてください。
+2. 医療用個人防護服が不足する場合、条件を満たす他のもので代替することも可能です。
+■ 長袖ガウンについて
+体を覆うことができ、破棄できるもので代替可能です。撥水性があることが望ましいです。（例：カッパ）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="HGMaruGothicMPRO"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">■ ゴーグル及びフェイスシールドについて
+目を覆うことができるもので代替可能です。（例：シュノーケリングマスク）
+【備考】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="HGMaruGothicMPRO"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※1
+原則、COVID-19 が疑われるまたは確定した入所者に対して日常的ケアを提供する際には、接触感染と飛沫感染の予防策を実践する必要があります。咳・痰などによる、いわゆるエアロゾルは4m飛散するという報告もあります。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="HGMaruGothicMPRO"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※2
+個人防護具については、医療機関と個人でそれぞれ適切な利用例が示されています。高齢者施設や基礎疾患のある方の長期療養施設については、医療機関に準じた形になります。
+医療施設の場合、患者に直接ケアを実施する場合は医療用マスク、ガウン、手袋、目の保護具が必要です。清掃時には、医療用マスク、ガウン、頑丈な手袋、目の保護具、長靴や周囲を覆われた穴の開いていない作業靴が必要です。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4293,6 +4380,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4335,7 +4429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4346,14 +4440,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4576,11 +4673,11 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4632,13 +4729,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="120">
@@ -4655,13 +4752,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="87">
@@ -4678,13 +4775,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>203</v>
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29">
@@ -4701,13 +4798,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>204</v>
+        <v>40</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="134">
@@ -4724,13 +4821,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="240">
@@ -4738,7 +4835,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -4747,13 +4844,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="90">
@@ -4770,13 +4867,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="207">
@@ -4793,13 +4890,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="135">
@@ -4816,13 +4913,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="90">
@@ -4839,13 +4936,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="180">
@@ -4853,7 +4950,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -4862,13 +4959,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>205</v>
+        <v>110</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="195">
@@ -4876,19 +4973,19 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -4897,22 +4994,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="356">
@@ -4920,27 +5017,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>206</v>
+        <v>137</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="120">
       <c r="A16" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
@@ -4952,13 +5049,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>207</v>
+        <v>98</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="269">
@@ -4973,13 +5070,13 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="120">
@@ -4996,16 +5093,16 @@
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="408" customHeight="1">
+    <row r="19" spans="1:7" ht="409.6">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -5019,13 +5116,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45">
@@ -5040,13 +5137,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="105">
@@ -5061,13 +5158,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="195">
@@ -5075,7 +5172,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
@@ -5084,13 +5181,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="75">
@@ -5098,7 +5195,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -5107,13 +5204,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="225">
@@ -5130,13 +5227,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>209</v>
+        <v>186</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="225">
@@ -5151,13 +5248,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="225">
@@ -5172,13 +5269,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="225">
@@ -5186,20 +5283,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>210</v>
+        <v>99</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="120">
@@ -5207,18 +5304,18 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="165">
@@ -5226,18 +5323,18 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="210">
@@ -5245,18 +5342,18 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="75">
@@ -5264,68 +5361,68 @@
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="135">
       <c r="A32" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="119">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="173">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
@@ -5334,13 +5431,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>211</v>
+        <v>100</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="179">
@@ -5348,20 +5445,20 @@
         <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="255">
@@ -5369,20 +5466,20 @@
         <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="370">
@@ -5390,20 +5487,20 @@
         <v>26</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="135">
@@ -5411,22 +5508,22 @@
         <v>26</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>212</v>
+        <v>104</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="120">
@@ -5434,70 +5531,70 @@
         <v>26</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="60">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="188">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>213</v>
+      <c r="G41" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="285">
       <c r="A42" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -5506,21 +5603,21 @@
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="120">
       <c r="A43" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>9</v>
@@ -5529,187 +5626,187 @@
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="285">
       <c r="A44" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="150">
       <c r="A45" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="165">
       <c r="A46" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="135">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>202</v>
+        <v>155</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
       <c r="A48" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="255">
       <c r="A49" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="165">
       <c r="A50" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="75">
       <c r="A51" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
